--- a/data/trans_bre/P30_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-13,13%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-11,95%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 17,81</t>
+          <t>-1,57; 19,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 19,69</t>
+          <t>-2,64; 18,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 8,21</t>
+          <t>-15,29; 7,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 12,24</t>
+          <t>-16,7; 8,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 113,1</t>
+          <t>-15,16; 12,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 79,53</t>
+          <t>-10,77; 16,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 35,58</t>
+          <t>-5,84; 108,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 38,45</t>
+          <t>-7,96; 77,99</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-43,33; 31,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; 31,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-33,14; 38,54</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-24,34; 59,12</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-8,41%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>-1,08%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23,47%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-26,33%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 7,03</t>
+          <t>-10,82; 8,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 7,32</t>
+          <t>-9,4; 8,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 12,01</t>
+          <t>-5,05; 12,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 18,52</t>
+          <t>-13,36; 9,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 37,0</t>
+          <t>-4,67; 18,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 33,82</t>
+          <t>-23,33; 0,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 66,41</t>
+          <t>-36,64; 45,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 78,14</t>
+          <t>-30,67; 36,25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-19,31; 69,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,36; 42,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-12,84; 75,03</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-47,57; 3,61</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-7,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,53</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-32,44%</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-36,55%</t>
+          <t>-25,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-23,86%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-37,49%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-15,58%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-24,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,25; -0,48</t>
+          <t>-16,09; 0,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 0,05</t>
+          <t>-14,71; 0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -3,45</t>
+          <t>-19,44; -3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 8,45</t>
+          <t>-13,05; 3,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,06; -2,82</t>
+          <t>-8,4; 8,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 0,48</t>
+          <t>-18,96; -0,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,14; -14,92</t>
+          <t>-49,03; 5,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 34,24</t>
+          <t>-42,91; 2,47</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-55,08; -15,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-41,46; 17,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-25,56; 33,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-44,31; -1,47</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-9,03</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,16</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-29,83%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,47%</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-31,9%</t>
+          <t>-30,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>-15,15%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-30,78%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-31,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 0,38</t>
+          <t>-13,91; 0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 3,2</t>
+          <t>-9,78; 3,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -0,68</t>
+          <t>-13,36; -0,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 12,77</t>
+          <t>-17,71; -1,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 2,43</t>
+          <t>-3,22; 12,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 17,78</t>
+          <t>-9,75; 7,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,4; -3,3</t>
+          <t>-52,86; 0,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 70,88</t>
+          <t>-38,72; 22,01</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-51,07; -3,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-51,01; -5,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 72,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-28,33; 28,94</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-28,73%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-29,16%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-30,94%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-19,16%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 9,25</t>
+          <t>-5,7; 6,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 5,39</t>
+          <t>-6,87; 5,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 1,7</t>
+          <t>-9,55; 1,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 8,0</t>
+          <t>-13,92; 1,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 94,93</t>
+          <t>-8,66; 7,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 47,4</t>
+          <t>-12,75; 3,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-60,12; 14,63</t>
+          <t>-36,0; 65,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 50,81</t>
+          <t>-39,59; 46,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-59,31; 14,02</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-58,6; 7,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-34,36; 49,08</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-46,34; 20,67</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,45%</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-58,14%</t>
+          <t>-9,93</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-47,66%</t>
+          <t>-41,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,63%</t>
+          <t>-53,62%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-39,29%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-23,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-34,6%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-45,42%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 0,1</t>
+          <t>-15,61; 1,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,11; -1,13</t>
+          <t>-15,69; -0,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 0,45</t>
+          <t>-15,32; 2,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 2,5</t>
+          <t>-11,39; 8,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,97; 4,68</t>
+          <t>-13,82; 2,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,34; -12,25</t>
+          <t>-18,25; -1,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,52; 17,11</t>
+          <t>-79,36; 26,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 30,64</t>
+          <t>-82,0; -2,73</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-73,96; 41,28</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-66,37; 107,87</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-68,65; 25,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-70,14; -5,37</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-0,47</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-17,85%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-25,01%</t>
+          <t>-15,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>-11,66%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-24,22%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-21,33%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>-1,8%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-21,33%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -0,07</t>
+          <t>-6,23; 0,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 0,14</t>
+          <t>-6,12; 0,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -2,12</t>
+          <t>-8,57; -1,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,44</t>
+          <t>-9,48; -1,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -0,28</t>
+          <t>-4,66; 3,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,67; 0,75</t>
+          <t>-11,35; -2,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,56; -10,09</t>
+          <t>-27,48; 1,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 14,57</t>
+          <t>-24,54; 3,28</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-35,45; -8,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-33,58; -7,02</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; 15,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-33,02; -9,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
